--- a/project/support/Inquerito Respostas/Bruno Pereira/Bruno Pereira.xlsx
+++ b/project/support/Inquerito Respostas/Bruno Pereira/Bruno Pereira.xlsx
@@ -369,9 +369,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
